--- a/Bodega Dekorarte/PlantillaSalidas.xlsx
+++ b/Bodega Dekorarte/PlantillaSalidas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega Dekorarte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega\Bodega Dekorarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -268,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +365,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -613,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,6 +746,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,20 +770,29 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thick">
           <color indexed="64"/>
         </top>
         <bottom style="thick">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -773,9 +801,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thick">
           <color indexed="64"/>
         </top>
@@ -1024,9 +1050,9 @@
     <tableColumn id="2" name="IMAGEN" dataDxfId="5"/>
     <tableColumn id="3" name="DESCRIPCION" dataDxfId="4"/>
     <tableColumn id="4" name="ESTADO" dataDxfId="3"/>
-    <tableColumn id="5" name="#" dataDxfId="2"/>
-    <tableColumn id="6" name="VALOR" dataDxfId="1"/>
-    <tableColumn id="7" name="ANOTACIONES" dataDxfId="0"/>
+    <tableColumn id="5" name="#" dataDxfId="0"/>
+    <tableColumn id="6" name="VALOR" dataDxfId="2"/>
+    <tableColumn id="7" name="ANOTACIONES" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,16 +1325,17 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:H5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="61.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.42578125" style="43"/>
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
@@ -1316,190 +1343,190 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="2:8" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="2:8" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>6</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>8</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Bodega Dekorarte/PlantillaSalidas.xlsx
+++ b/Bodega Dekorarte/PlantillaSalidas.xlsx
@@ -685,6 +685,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,21 +761,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,32 +769,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="48"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -829,6 +803,32 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1050,9 +1050,9 @@
     <tableColumn id="2" name="IMAGEN" dataDxfId="5"/>
     <tableColumn id="3" name="DESCRIPCION" dataDxfId="4"/>
     <tableColumn id="4" name="ESTADO" dataDxfId="3"/>
-    <tableColumn id="5" name="#" dataDxfId="0"/>
-    <tableColumn id="6" name="VALOR" dataDxfId="2"/>
-    <tableColumn id="7" name="ANOTACIONES" dataDxfId="1"/>
+    <tableColumn id="5" name="#" dataDxfId="2"/>
+    <tableColumn id="6" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="7" name="ANOTACIONES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,8 +1324,7 @@
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="61.5" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1334,7 @@
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="11.42578125" style="43"/>
+    <col min="6" max="6" width="11.42578125" style="22"/>
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
@@ -1343,79 +1342,79 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="2:8" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
@@ -1447,7 +1446,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
     </row>
@@ -1458,7 +1457,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
     </row>
@@ -1469,7 +1468,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
@@ -1480,7 +1479,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
@@ -1491,7 +1490,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="44"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
@@ -1502,7 +1501,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="9"/>
       <c r="H15" s="11"/>
     </row>
@@ -1513,7 +1512,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
     </row>
@@ -1524,7 +1523,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="47"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>

--- a/Bodega Dekorarte/PlantillaSalidas.xlsx
+++ b/Bodega Dekorarte/PlantillaSalidas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NIT. 900,645,501-1</t>
   </si>
@@ -260,15 +260,25 @@
       <t>#Daammdd</t>
     </r>
   </si>
+  <si>
+    <t>Cantidad total de Articulos</t>
+  </si>
+  <si>
+    <t>Valorización total</t>
+  </si>
+  <si>
+    <t>Valor Alquiler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +382,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +436,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -613,6 +663,49 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -620,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,6 +854,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,39 +902,36 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thick">
           <color indexed="64"/>
         </top>
         <bottom style="thick">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thick">
           <color indexed="64"/>
         </top>
         <bottom style="thick">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -820,9 +949,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thick">
           <color indexed="64"/>
         </top>
@@ -1051,8 +1178,8 @@
     <tableColumn id="3" name="DESCRIPCION" dataDxfId="4"/>
     <tableColumn id="4" name="ESTADO" dataDxfId="3"/>
     <tableColumn id="5" name="#" dataDxfId="2"/>
-    <tableColumn id="6" name="VALOR" dataDxfId="1"/>
-    <tableColumn id="7" name="ANOTACIONES" dataDxfId="0"/>
+    <tableColumn id="6" name="VALOR" dataDxfId="0"/>
+    <tableColumn id="7" name="ANOTACIONES" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="61.5" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1574,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,7 +1585,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1596,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,7 +1607,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,7 +1618,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1629,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1513,7 +1640,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1524,12 +1651,43 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:8" ht="97.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="2:8" ht="97.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57">
+        <f>SUM(Tabla5['#])</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58">
+        <f>SUM(Tabla5[VALOR])</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60">
+        <f>(D20*0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+    </row>
     <row r="21" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1717,13 @@
     <row r="47" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B8:H8"/>
